--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_6_matched_errors_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-9.584088888243137</v>
+        <v>9.643547872076862</v>
       </c>
       <c r="C3">
-        <v>-1.444417341263988</v>
+        <v>-8.527713928060606</v>
       </c>
       <c r="D3">
-        <v>0.7031531305354048</v>
+        <v>-0.388042381081458</v>
       </c>
       <c r="E3">
-        <v>-2.736876855987925</v>
+        <v>1.759528090717934</v>
       </c>
       <c r="F3">
-        <v>-2.798051034402126</v>
+        <v>-1.680501895805395</v>
       </c>
       <c r="G3">
-        <v>-0.7565950972458717</v>
+        <v>-1.741676074219596</v>
       </c>
       <c r="H3">
-        <v>-1.339189634279513</v>
+        <v>0.2997798629366579</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.573770965293057</v>
+        <v>-9.584088888243137</v>
       </c>
       <c r="C4">
-        <v>1.573799506506335</v>
+        <v>-1.444417341263988</v>
       </c>
       <c r="D4">
-        <v>-1.866230480016994</v>
+        <v>0.7031531305354048</v>
       </c>
       <c r="E4">
-        <v>-1.927404658431195</v>
+        <v>-2.736876855987925</v>
       </c>
       <c r="F4">
-        <v>0.1140512787250589</v>
+        <v>-2.798051034402126</v>
       </c>
       <c r="G4">
-        <v>-0.4685432583085821</v>
+        <v>-0.7565950972458717</v>
       </c>
       <c r="H4">
-        <v>-0.3728682174992243</v>
+        <v>-1.339189634279513</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.563148290176452</v>
+        <v>-0.573770965293057</v>
       </c>
       <c r="C5">
-        <v>-1.876881696346878</v>
+        <v>1.573799506506335</v>
       </c>
       <c r="D5">
-        <v>-1.938055874761079</v>
+        <v>-1.866230480016994</v>
       </c>
       <c r="E5">
-        <v>0.1034000623951754</v>
+        <v>-1.927404658431195</v>
       </c>
       <c r="F5">
-        <v>-0.4791944746384656</v>
+        <v>0.1140512787250589</v>
       </c>
       <c r="G5">
-        <v>-0.3835194338291078</v>
+        <v>-0.4685432583085821</v>
       </c>
       <c r="H5">
-        <v>-0.6439384708278306</v>
+        <v>-0.3728682174992243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1.985496228563019</v>
+        <v>1.563148290176452</v>
       </c>
       <c r="C6">
-        <v>-2.04667040697722</v>
+        <v>-1.876881696346878</v>
       </c>
       <c r="D6">
-        <v>-0.005214469820965406</v>
+        <v>-1.938055874761079</v>
       </c>
       <c r="E6">
-        <v>-0.5878090068546065</v>
+        <v>0.1034000623951754</v>
       </c>
       <c r="F6">
-        <v>-0.4921339660452486</v>
+        <v>-0.4791944746384656</v>
       </c>
       <c r="G6">
-        <v>-0.7525530030439714</v>
+        <v>-0.3835194338291078</v>
       </c>
       <c r="H6">
-        <v>0.08290199311451979</v>
+        <v>-0.6439384708278306</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.838568686009481</v>
+        <v>-1.985496228563019</v>
       </c>
       <c r="C7">
-        <v>0.2028872511467736</v>
+        <v>-2.04667040697722</v>
       </c>
       <c r="D7">
-        <v>-0.3797072858868674</v>
+        <v>-0.005214469820965406</v>
       </c>
       <c r="E7">
-        <v>-0.2840322450775096</v>
+        <v>-0.5878090068546065</v>
       </c>
       <c r="F7">
-        <v>-0.5444512820762324</v>
+        <v>-0.4921339660452486</v>
       </c>
       <c r="G7">
-        <v>0.2910037140822588</v>
+        <v>-0.7525530030439714</v>
       </c>
       <c r="H7">
-        <v>0.1909243541796373</v>
+        <v>0.08290199311451979</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.319385421520574</v>
+        <v>-1.838568686009481</v>
       </c>
       <c r="C8">
-        <v>-0.263209115513067</v>
+        <v>0.2028872511467736</v>
       </c>
       <c r="D8">
-        <v>-0.1675340747037092</v>
+        <v>-0.3797072858868674</v>
       </c>
       <c r="E8">
-        <v>-0.427953111702432</v>
+        <v>-0.2840322450775096</v>
       </c>
       <c r="F8">
-        <v>0.4075018844560592</v>
+        <v>-0.5444512820762324</v>
       </c>
       <c r="G8">
-        <v>0.3074225245534377</v>
+        <v>0.2910037140822588</v>
       </c>
       <c r="H8">
-        <v>-0.04636398152625851</v>
+        <v>0.1909243541796373</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.2177157015159319</v>
+        <v>0.319385421520574</v>
       </c>
       <c r="C9">
-        <v>-0.1220406607065741</v>
+        <v>-0.263209115513067</v>
       </c>
       <c r="D9">
-        <v>-0.3824596977052969</v>
+        <v>-0.1675340747037092</v>
       </c>
       <c r="E9">
-        <v>0.4529952984531944</v>
+        <v>-0.427953111702432</v>
       </c>
       <c r="F9">
-        <v>0.3529159385505728</v>
+        <v>0.4075018844560592</v>
       </c>
       <c r="G9">
-        <v>-0.0008705675291234075</v>
+        <v>0.3074225245534377</v>
       </c>
       <c r="H9">
-        <v>0.1473068229033219</v>
+        <v>-0.04636398152625851</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1395947820665385</v>
+        <v>-0.2177157015159319</v>
       </c>
       <c r="C10">
-        <v>-0.4000138190652613</v>
+        <v>-0.1220406607065741</v>
       </c>
       <c r="D10">
-        <v>0.4354411770932299</v>
+        <v>-0.3824596977052969</v>
       </c>
       <c r="E10">
-        <v>0.3353618171906084</v>
+        <v>0.4529952984531944</v>
       </c>
       <c r="F10">
-        <v>-0.01842468888908786</v>
+        <v>0.3529159385505728</v>
       </c>
       <c r="G10">
-        <v>0.1297527015433575</v>
+        <v>-0.0008705675291234075</v>
       </c>
       <c r="H10">
-        <v>0.2871986905475125</v>
+        <v>0.1473068229033219</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.3119065001142551</v>
+        <v>-0.1395947820665385</v>
       </c>
       <c r="C11">
-        <v>0.5235484960442361</v>
+        <v>-0.4000138190652613</v>
       </c>
       <c r="D11">
-        <v>0.4234691361416146</v>
+        <v>0.4354411770932299</v>
       </c>
       <c r="E11">
-        <v>0.06968263006191837</v>
+        <v>0.3353618171906084</v>
       </c>
       <c r="F11">
-        <v>0.2178600204943637</v>
+        <v>-0.01842468888908786</v>
       </c>
       <c r="G11">
-        <v>0.3753060094985187</v>
+        <v>0.1297527015433575</v>
       </c>
       <c r="H11">
-        <v>-0.1253534470275521</v>
+        <v>0.2871986905475125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7021231295320197</v>
+        <v>-0.3119065001142551</v>
       </c>
       <c r="C12">
-        <v>0.6020437696293982</v>
+        <v>0.5235484960442361</v>
       </c>
       <c r="D12">
-        <v>0.248257263549702</v>
+        <v>0.4234691361416146</v>
       </c>
       <c r="E12">
-        <v>0.3964346539821473</v>
+        <v>0.06968263006191837</v>
       </c>
       <c r="F12">
-        <v>0.5538806429863024</v>
+        <v>0.2178600204943637</v>
       </c>
       <c r="G12">
-        <v>0.0532211864602315</v>
+        <v>0.3753060094985187</v>
       </c>
       <c r="H12">
-        <v>0.3335790669957007</v>
+        <v>-0.1253534470275521</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.514070997382048</v>
+        <v>0.7021231295320197</v>
       </c>
       <c r="C13">
-        <v>1.160284491302352</v>
+        <v>0.6020437696293982</v>
       </c>
       <c r="D13">
-        <v>1.308461881734797</v>
+        <v>0.248257263549702</v>
       </c>
       <c r="E13">
-        <v>1.465907870738952</v>
+        <v>0.3964346539821473</v>
       </c>
       <c r="F13">
-        <v>0.9652484142128814</v>
+        <v>0.5538806429863024</v>
       </c>
       <c r="G13">
-        <v>1.245606294748351</v>
+        <v>0.0532211864602315</v>
       </c>
       <c r="H13">
-        <v>1.073631436903339</v>
+        <v>0.3335790669957007</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2163102553365951</v>
+        <v>1.514070997382048</v>
       </c>
       <c r="C14">
-        <v>0.3644876457690405</v>
+        <v>1.160284491302352</v>
       </c>
       <c r="D14">
-        <v>0.5219336347731955</v>
+        <v>1.308461881734797</v>
       </c>
       <c r="E14">
-        <v>0.02127417824712469</v>
+        <v>1.465907870738952</v>
       </c>
       <c r="F14">
-        <v>0.3016320587825939</v>
+        <v>0.9652484142128814</v>
       </c>
       <c r="G14">
-        <v>0.1296572009375822</v>
+        <v>1.245606294748351</v>
       </c>
       <c r="H14">
-        <v>0.4355197406839137</v>
+        <v>1.073631436903339</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3684555432821496</v>
+        <v>0.2163102553365951</v>
       </c>
       <c r="C15">
-        <v>0.5259015322863045</v>
+        <v>0.3644876457690405</v>
       </c>
       <c r="D15">
-        <v>0.0252420757602338</v>
+        <v>0.5219336347731955</v>
       </c>
       <c r="E15">
-        <v>0.305599956295703</v>
+        <v>0.02127417824712469</v>
       </c>
       <c r="F15">
-        <v>0.1336250984506913</v>
+        <v>0.3016320587825939</v>
       </c>
       <c r="G15">
-        <v>0.4394876381970228</v>
+        <v>0.1296572009375822</v>
       </c>
       <c r="H15">
-        <v>-0.1728423144902634</v>
+        <v>0.4355197406839137</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.661541622456546</v>
+        <v>0.3684555432821496</v>
       </c>
       <c r="C16">
-        <v>0.1608821659304752</v>
+        <v>0.5259015322863045</v>
       </c>
       <c r="D16">
-        <v>0.4412400464659443</v>
+        <v>0.0252420757602338</v>
       </c>
       <c r="E16">
-        <v>0.2692651886209327</v>
+        <v>0.305599956295703</v>
       </c>
       <c r="F16">
-        <v>0.5751277283672642</v>
+        <v>0.1336250984506913</v>
       </c>
       <c r="G16">
-        <v>-0.03720222432002201</v>
+        <v>0.4394876381970228</v>
       </c>
       <c r="H16">
-        <v>0.6511691608790895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1728423144902634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.07992401592518952</v>
+        <v>0.661541622456546</v>
       </c>
       <c r="C17">
-        <v>0.2004338646102796</v>
+        <v>0.1608821659304752</v>
       </c>
       <c r="D17">
-        <v>0.028459006765268</v>
+        <v>0.4412400464659443</v>
       </c>
       <c r="E17">
-        <v>0.3343215465115995</v>
+        <v>0.2692651886209327</v>
       </c>
       <c r="F17">
-        <v>-0.2780084061756867</v>
+        <v>0.5751277283672642</v>
       </c>
       <c r="G17">
-        <v>0.4103629790234248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.03720222432002201</v>
+      </c>
+      <c r="H17">
+        <v>0.6511691608790895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1551026493581833</v>
+        <v>-0.07992401592518952</v>
       </c>
       <c r="C18">
-        <v>-0.01687220848682837</v>
+        <v>0.2004338646102796</v>
       </c>
       <c r="D18">
-        <v>0.2889903312595031</v>
+        <v>0.028459006765268</v>
       </c>
       <c r="E18">
-        <v>-0.3233396214277831</v>
+        <v>0.3343215465115995</v>
       </c>
       <c r="F18">
-        <v>0.3650317637713285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.2780084061756867</v>
+      </c>
+      <c r="G18">
+        <v>0.4103629790234248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.08373363042288225</v>
+        <v>0.1551026493581833</v>
       </c>
       <c r="C19">
-        <v>0.2221289093234493</v>
+        <v>-0.01687220848682837</v>
       </c>
       <c r="D19">
-        <v>-0.3902010433638369</v>
+        <v>0.2889903312595031</v>
       </c>
       <c r="E19">
-        <v>0.2981703418352746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.3233396214277831</v>
+      </c>
+      <c r="F19">
+        <v>0.3650317637713285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1925427069667326</v>
+        <v>-0.08373363042288225</v>
       </c>
       <c r="C20">
-        <v>-0.4197872457205535</v>
+        <v>0.2221289093234493</v>
       </c>
       <c r="D20">
-        <v>0.268584139478558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.3902010433638369</v>
+      </c>
+      <c r="E20">
+        <v>0.2981703418352746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.4379379024501944</v>
+        <v>0.1925427069667326</v>
       </c>
       <c r="C21">
-        <v>0.2504334827489171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.4197872457205535</v>
+      </c>
+      <c r="D21">
+        <v>0.268584139478558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>-0.4379379024501944</v>
+      </c>
+      <c r="C22">
+        <v>0.2504334827489171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.2324016585002178</v>
       </c>
     </row>
